--- a/teaching/traditional_assets/database/data/lithuania/lithuania_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/lithuania/lithuania_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.132</v>
+        <v>0.127</v>
       </c>
       <c r="E2">
-        <v>0.369</v>
+        <v>0.191</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,34 +603,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006707193021603249</v>
+        <v>7.382190070637282e-05</v>
       </c>
       <c r="J2">
-        <v>0.005774186661888165</v>
+        <v>6.134495974191544e-05</v>
       </c>
       <c r="K2">
-        <v>59.7</v>
+        <v>53</v>
       </c>
       <c r="L2">
-        <v>0.4814516129032259</v>
+        <v>0.4372937293729373</v>
       </c>
       <c r="M2">
-        <v>19</v>
+        <v>0.011</v>
       </c>
       <c r="N2">
-        <v>0.05571847507331378</v>
+        <v>3.006285870456409e-05</v>
       </c>
       <c r="O2">
-        <v>0.3182579564489112</v>
+        <v>0.0002075471698113207</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>0.011</v>
       </c>
       <c r="Q2">
-        <v>0.05571847507331378</v>
+        <v>3.006285870456409e-05</v>
       </c>
       <c r="R2">
-        <v>0.3182579564489112</v>
+        <v>0.0002075471698113207</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>138.8</v>
+        <v>387.2</v>
       </c>
       <c r="V2">
-        <v>0.4070381231671555</v>
+        <v>1.058212626400656</v>
       </c>
       <c r="W2">
-        <v>0.2180423666910153</v>
+        <v>0.1620299602568022</v>
       </c>
       <c r="X2">
-        <v>0.05177826569734549</v>
+        <v>0.05441067181199521</v>
       </c>
       <c r="Y2">
-        <v>0.1662641009936698</v>
+        <v>0.107619288444807</v>
       </c>
       <c r="Z2">
-        <v>0.4840128594485146</v>
+        <v>0.4129257142472143</v>
       </c>
       <c r="AA2">
-        <v>0.002794780597209964</v>
+        <v>2.533091131689704e-05</v>
       </c>
       <c r="AB2">
-        <v>0.04712774704827576</v>
+        <v>0.04237760892340605</v>
       </c>
       <c r="AC2">
-        <v>-0.04433296645106579</v>
+        <v>-0.04235227801208916</v>
       </c>
       <c r="AD2">
-        <v>105.2</v>
+        <v>258.3</v>
       </c>
       <c r="AE2">
-        <v>3.191540326605986</v>
+        <v>0.01526392817193807</v>
       </c>
       <c r="AF2">
-        <v>108.391540326606</v>
+        <v>258.3152639281719</v>
       </c>
       <c r="AG2">
-        <v>-30.40845967339402</v>
+        <v>-128.8847360718281</v>
       </c>
       <c r="AH2">
-        <v>0.2411962188870531</v>
+        <v>0.4138240104905479</v>
       </c>
       <c r="AI2">
-        <v>0.2488947092871551</v>
+        <v>0.3886103989874454</v>
       </c>
       <c r="AJ2">
-        <v>-0.09790498363676509</v>
+        <v>-0.5437824296028753</v>
       </c>
       <c r="AK2">
-        <v>-0.1024918325609135</v>
+        <v>-0.4644239536502999</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>71.56462585034014</v>
+        <v>21525</v>
       </c>
       <c r="AP2">
-        <v>-20.68602698870341</v>
+        <v>-10740.39467265234</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.132</v>
+        <v>0.127</v>
       </c>
       <c r="E3">
-        <v>0.369</v>
+        <v>0.191</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +731,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.006707193021603249</v>
+        <v>7.382190070637282e-05</v>
       </c>
       <c r="J3">
-        <v>0.005774186661888165</v>
+        <v>6.134495974191544e-05</v>
       </c>
       <c r="K3">
-        <v>59.7</v>
+        <v>53</v>
       </c>
       <c r="L3">
-        <v>0.4814516129032259</v>
+        <v>0.4372937293729373</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>0.011</v>
       </c>
       <c r="N3">
-        <v>0.05571847507331378</v>
+        <v>3.006285870456409e-05</v>
       </c>
       <c r="O3">
-        <v>0.3182579564489112</v>
+        <v>0.0002075471698113207</v>
       </c>
       <c r="P3">
-        <v>19</v>
+        <v>0.011</v>
       </c>
       <c r="Q3">
-        <v>0.05571847507331378</v>
+        <v>3.006285870456409e-05</v>
       </c>
       <c r="R3">
-        <v>0.3182579564489112</v>
+        <v>0.0002075471698113207</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>138.8</v>
+        <v>387.2</v>
       </c>
       <c r="V3">
-        <v>0.4070381231671555</v>
+        <v>1.058212626400656</v>
       </c>
       <c r="W3">
-        <v>0.2180423666910153</v>
+        <v>0.1620299602568022</v>
       </c>
       <c r="X3">
-        <v>0.05177826569734549</v>
+        <v>0.05441067181199521</v>
       </c>
       <c r="Y3">
-        <v>0.1662641009936698</v>
+        <v>0.107619288444807</v>
       </c>
       <c r="Z3">
-        <v>0.4840128594485146</v>
+        <v>0.4129257142472143</v>
       </c>
       <c r="AA3">
-        <v>0.002794780597209964</v>
+        <v>2.533091131689704e-05</v>
       </c>
       <c r="AB3">
-        <v>0.04712774704827576</v>
+        <v>0.04237760892340605</v>
       </c>
       <c r="AC3">
-        <v>-0.04433296645106579</v>
+        <v>-0.04235227801208916</v>
       </c>
       <c r="AD3">
-        <v>105.2</v>
+        <v>258.3</v>
       </c>
       <c r="AE3">
-        <v>3.191540326605986</v>
+        <v>0.01526392817193807</v>
       </c>
       <c r="AF3">
-        <v>108.391540326606</v>
+        <v>258.3152639281719</v>
       </c>
       <c r="AG3">
-        <v>-30.40845967339402</v>
+        <v>-128.8847360718281</v>
       </c>
       <c r="AH3">
-        <v>0.2411962188870531</v>
+        <v>0.4138240104905479</v>
       </c>
       <c r="AI3">
-        <v>0.2488947092871551</v>
+        <v>0.3886103989874454</v>
       </c>
       <c r="AJ3">
-        <v>-0.09790498363676509</v>
+        <v>-0.5437824296028753</v>
       </c>
       <c r="AK3">
-        <v>-0.1024918325609135</v>
+        <v>-0.4644239536502999</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>71.56462585034014</v>
+        <v>21525</v>
       </c>
       <c r="AP3">
-        <v>-20.68602698870341</v>
+        <v>-10740.39467265234</v>
       </c>
     </row>
   </sheetData>
